--- a/stock/data/SK 바이오팜.xlsx
+++ b/stock/data/SK 바이오팜.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G925"/>
+  <dimension ref="A1:G958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21720,10 +21720,769 @@
         <v>91700</v>
       </c>
       <c r="F925" t="n">
-        <v>110714</v>
+        <v>111298</v>
       </c>
       <c r="G925" t="n">
         <v>-0.8648648648648649</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B926" t="n">
+        <v>93000</v>
+      </c>
+      <c r="C926" t="n">
+        <v>93300</v>
+      </c>
+      <c r="D926" t="n">
+        <v>91600</v>
+      </c>
+      <c r="E926" t="n">
+        <v>92000</v>
+      </c>
+      <c r="F926" t="n">
+        <v>69726</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.3271537622682661</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B927" t="n">
+        <v>91500</v>
+      </c>
+      <c r="C927" t="n">
+        <v>92000</v>
+      </c>
+      <c r="D927" t="n">
+        <v>89500</v>
+      </c>
+      <c r="E927" t="n">
+        <v>89900</v>
+      </c>
+      <c r="F927" t="n">
+        <v>114716</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-2.282608695652174</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B928" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C928" t="n">
+        <v>89900</v>
+      </c>
+      <c r="D928" t="n">
+        <v>87800</v>
+      </c>
+      <c r="E928" t="n">
+        <v>88200</v>
+      </c>
+      <c r="F928" t="n">
+        <v>133298</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-1.89098998887653</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B929" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C929" t="n">
+        <v>92200</v>
+      </c>
+      <c r="D929" t="n">
+        <v>88900</v>
+      </c>
+      <c r="E929" t="n">
+        <v>89500</v>
+      </c>
+      <c r="F929" t="n">
+        <v>122431</v>
+      </c>
+      <c r="G929" t="n">
+        <v>1.473922902494331</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B930" t="n">
+        <v>88700</v>
+      </c>
+      <c r="C930" t="n">
+        <v>89500</v>
+      </c>
+      <c r="D930" t="n">
+        <v>87800</v>
+      </c>
+      <c r="E930" t="n">
+        <v>88400</v>
+      </c>
+      <c r="F930" t="n">
+        <v>69268</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-1.229050279329609</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B931" t="n">
+        <v>88400</v>
+      </c>
+      <c r="C931" t="n">
+        <v>89300</v>
+      </c>
+      <c r="D931" t="n">
+        <v>86700</v>
+      </c>
+      <c r="E931" t="n">
+        <v>89100</v>
+      </c>
+      <c r="F931" t="n">
+        <v>90625</v>
+      </c>
+      <c r="G931" t="n">
+        <v>0.7918552036199095</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B932" t="n">
+        <v>89000</v>
+      </c>
+      <c r="C932" t="n">
+        <v>89700</v>
+      </c>
+      <c r="D932" t="n">
+        <v>87600</v>
+      </c>
+      <c r="E932" t="n">
+        <v>88400</v>
+      </c>
+      <c r="F932" t="n">
+        <v>65436</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-0.7856341189674524</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B933" t="n">
+        <v>87600</v>
+      </c>
+      <c r="C933" t="n">
+        <v>88400</v>
+      </c>
+      <c r="D933" t="n">
+        <v>85700</v>
+      </c>
+      <c r="E933" t="n">
+        <v>87900</v>
+      </c>
+      <c r="F933" t="n">
+        <v>132846</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-0.5656108597285068</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B934" t="n">
+        <v>87600</v>
+      </c>
+      <c r="C934" t="n">
+        <v>87900</v>
+      </c>
+      <c r="D934" t="n">
+        <v>86200</v>
+      </c>
+      <c r="E934" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F934" t="n">
+        <v>77660</v>
+      </c>
+      <c r="G934" t="n">
+        <v>-1.36518771331058</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B935" t="n">
+        <v>85500</v>
+      </c>
+      <c r="C935" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D935" t="n">
+        <v>82900</v>
+      </c>
+      <c r="E935" t="n">
+        <v>83600</v>
+      </c>
+      <c r="F935" t="n">
+        <v>140511</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-3.575547866205306</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B936" t="n">
+        <v>82800</v>
+      </c>
+      <c r="C936" t="n">
+        <v>83400</v>
+      </c>
+      <c r="D936" t="n">
+        <v>81100</v>
+      </c>
+      <c r="E936" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F936" t="n">
+        <v>114926</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-2.392344497607656</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B937" t="n">
+        <v>81600</v>
+      </c>
+      <c r="C937" t="n">
+        <v>82500</v>
+      </c>
+      <c r="D937" t="n">
+        <v>80700</v>
+      </c>
+      <c r="E937" t="n">
+        <v>80700</v>
+      </c>
+      <c r="F937" t="n">
+        <v>85154</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-1.102941176470588</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B938" t="n">
+        <v>81500</v>
+      </c>
+      <c r="C938" t="n">
+        <v>85600</v>
+      </c>
+      <c r="D938" t="n">
+        <v>81000</v>
+      </c>
+      <c r="E938" t="n">
+        <v>84400</v>
+      </c>
+      <c r="F938" t="n">
+        <v>90986</v>
+      </c>
+      <c r="G938" t="n">
+        <v>4.584882280049566</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B939" t="n">
+        <v>83200</v>
+      </c>
+      <c r="C939" t="n">
+        <v>84400</v>
+      </c>
+      <c r="D939" t="n">
+        <v>81000</v>
+      </c>
+      <c r="E939" t="n">
+        <v>82700</v>
+      </c>
+      <c r="F939" t="n">
+        <v>93967</v>
+      </c>
+      <c r="G939" t="n">
+        <v>-2.014218009478673</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B940" t="n">
+        <v>84700</v>
+      </c>
+      <c r="C940" t="n">
+        <v>85400</v>
+      </c>
+      <c r="D940" t="n">
+        <v>83200</v>
+      </c>
+      <c r="E940" t="n">
+        <v>84200</v>
+      </c>
+      <c r="F940" t="n">
+        <v>70684</v>
+      </c>
+      <c r="G940" t="n">
+        <v>1.813784764207981</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B941" t="n">
+        <v>84200</v>
+      </c>
+      <c r="C941" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D941" t="n">
+        <v>83700</v>
+      </c>
+      <c r="E941" t="n">
+        <v>84000</v>
+      </c>
+      <c r="F941" t="n">
+        <v>65826</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-0.2375296912114014</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B942" t="n">
+        <v>85200</v>
+      </c>
+      <c r="C942" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D942" t="n">
+        <v>83900</v>
+      </c>
+      <c r="E942" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F942" t="n">
+        <v>58324</v>
+      </c>
+      <c r="G942" t="n">
+        <v>1.19047619047619</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B943" t="n">
+        <v>84100</v>
+      </c>
+      <c r="C943" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D943" t="n">
+        <v>83000</v>
+      </c>
+      <c r="E943" t="n">
+        <v>83300</v>
+      </c>
+      <c r="F943" t="n">
+        <v>80223</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B944" t="n">
+        <v>83700</v>
+      </c>
+      <c r="C944" t="n">
+        <v>83800</v>
+      </c>
+      <c r="D944" t="n">
+        <v>82600</v>
+      </c>
+      <c r="E944" t="n">
+        <v>83500</v>
+      </c>
+      <c r="F944" t="n">
+        <v>37526</v>
+      </c>
+      <c r="G944" t="n">
+        <v>0.2400960384153661</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B945" t="n">
+        <v>84000</v>
+      </c>
+      <c r="C945" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D945" t="n">
+        <v>83800</v>
+      </c>
+      <c r="E945" t="n">
+        <v>85900</v>
+      </c>
+      <c r="F945" t="n">
+        <v>91765</v>
+      </c>
+      <c r="G945" t="n">
+        <v>2.874251497005988</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B946" t="n">
+        <v>85200</v>
+      </c>
+      <c r="C946" t="n">
+        <v>90500</v>
+      </c>
+      <c r="D946" t="n">
+        <v>85200</v>
+      </c>
+      <c r="E946" t="n">
+        <v>87600</v>
+      </c>
+      <c r="F946" t="n">
+        <v>174895</v>
+      </c>
+      <c r="G946" t="n">
+        <v>1.979045401629802</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B947" t="n">
+        <v>87500</v>
+      </c>
+      <c r="C947" t="n">
+        <v>89200</v>
+      </c>
+      <c r="D947" t="n">
+        <v>87100</v>
+      </c>
+      <c r="E947" t="n">
+        <v>88300</v>
+      </c>
+      <c r="F947" t="n">
+        <v>72720</v>
+      </c>
+      <c r="G947" t="n">
+        <v>0.7990867579908676</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B948" t="n">
+        <v>88700</v>
+      </c>
+      <c r="C948" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D948" t="n">
+        <v>86600</v>
+      </c>
+      <c r="E948" t="n">
+        <v>86600</v>
+      </c>
+      <c r="F948" t="n">
+        <v>62483</v>
+      </c>
+      <c r="G948" t="n">
+        <v>-1.925254813137033</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B949" t="n">
+        <v>88100</v>
+      </c>
+      <c r="C949" t="n">
+        <v>89900</v>
+      </c>
+      <c r="D949" t="n">
+        <v>87500</v>
+      </c>
+      <c r="E949" t="n">
+        <v>88800</v>
+      </c>
+      <c r="F949" t="n">
+        <v>109295</v>
+      </c>
+      <c r="G949" t="n">
+        <v>2.54041570438799</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B950" t="n">
+        <v>88900</v>
+      </c>
+      <c r="C950" t="n">
+        <v>90300</v>
+      </c>
+      <c r="D950" t="n">
+        <v>88100</v>
+      </c>
+      <c r="E950" t="n">
+        <v>89500</v>
+      </c>
+      <c r="F950" t="n">
+        <v>70976</v>
+      </c>
+      <c r="G950" t="n">
+        <v>0.7882882882882882</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B951" t="n">
+        <v>89800</v>
+      </c>
+      <c r="C951" t="n">
+        <v>90600</v>
+      </c>
+      <c r="D951" t="n">
+        <v>88100</v>
+      </c>
+      <c r="E951" t="n">
+        <v>88400</v>
+      </c>
+      <c r="F951" t="n">
+        <v>91951</v>
+      </c>
+      <c r="G951" t="n">
+        <v>-1.229050279329609</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B952" t="n">
+        <v>89800</v>
+      </c>
+      <c r="C952" t="n">
+        <v>92000</v>
+      </c>
+      <c r="D952" t="n">
+        <v>89800</v>
+      </c>
+      <c r="E952" t="n">
+        <v>89800</v>
+      </c>
+      <c r="F952" t="n">
+        <v>113931</v>
+      </c>
+      <c r="G952" t="n">
+        <v>1.583710407239819</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B953" t="n">
+        <v>89800</v>
+      </c>
+      <c r="C953" t="n">
+        <v>90500</v>
+      </c>
+      <c r="D953" t="n">
+        <v>88400</v>
+      </c>
+      <c r="E953" t="n">
+        <v>88600</v>
+      </c>
+      <c r="F953" t="n">
+        <v>43862</v>
+      </c>
+      <c r="G953" t="n">
+        <v>-1.33630289532294</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B954" t="n">
+        <v>89400</v>
+      </c>
+      <c r="C954" t="n">
+        <v>89400</v>
+      </c>
+      <c r="D954" t="n">
+        <v>87300</v>
+      </c>
+      <c r="E954" t="n">
+        <v>87500</v>
+      </c>
+      <c r="F954" t="n">
+        <v>58199</v>
+      </c>
+      <c r="G954" t="n">
+        <v>-1.241534988713318</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B955" t="n">
+        <v>89400</v>
+      </c>
+      <c r="C955" t="n">
+        <v>90200</v>
+      </c>
+      <c r="D955" t="n">
+        <v>88800</v>
+      </c>
+      <c r="E955" t="n">
+        <v>89600</v>
+      </c>
+      <c r="F955" t="n">
+        <v>67761</v>
+      </c>
+      <c r="G955" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B956" t="n">
+        <v>88800</v>
+      </c>
+      <c r="C956" t="n">
+        <v>90500</v>
+      </c>
+      <c r="D956" t="n">
+        <v>88300</v>
+      </c>
+      <c r="E956" t="n">
+        <v>89600</v>
+      </c>
+      <c r="F956" t="n">
+        <v>73206</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B957" t="n">
+        <v>90000</v>
+      </c>
+      <c r="C957" t="n">
+        <v>90100</v>
+      </c>
+      <c r="D957" t="n">
+        <v>88500</v>
+      </c>
+      <c r="E957" t="n">
+        <v>89600</v>
+      </c>
+      <c r="F957" t="n">
+        <v>47283</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B958" t="n">
+        <v>88400</v>
+      </c>
+      <c r="C958" t="n">
+        <v>88700</v>
+      </c>
+      <c r="D958" t="n">
+        <v>86500</v>
+      </c>
+      <c r="E958" t="n">
+        <v>88300</v>
+      </c>
+      <c r="F958" t="n">
+        <v>69334</v>
+      </c>
+      <c r="G958" t="n">
+        <v>-1.450892857142857</v>
       </c>
     </row>
   </sheetData>
